--- a/Metroid/Resources/Sprite_Sheet.xlsx
+++ b/Metroid/Resources/Sprite_Sheet.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C231BE1-4E6E-45EB-AC16-1478285A7405}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,21 +21,21 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="characterSpritePos" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="characterSpritePos" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\Project\Metroid\Metroid\Resources\characterSpritePos.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="newsheet1" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="newsheet1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\Project\Metroid\Metroid\Resources\newsheet1.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="newsheet11" type="4" refreshedVersion="0" background="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="newsheet11" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\Project\Metroid\Metroid\Resources\newsheet1.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
   <si>
     <t>x</t>
   </si>
@@ -214,37 +215,175 @@
   </si>
   <si>
     <t>s2_28</t>
+  </si>
+  <si>
+    <t>s1_25</t>
+  </si>
+  <si>
+    <t>s1_26</t>
+  </si>
+  <si>
+    <t>s1_27</t>
+  </si>
+  <si>
+    <t>s1_28</t>
+  </si>
+  <si>
+    <t>s1_29</t>
+  </si>
+  <si>
+    <t>s1_30</t>
+  </si>
+  <si>
+    <t>s1_31</t>
+  </si>
+  <si>
+    <t>s1_32</t>
+  </si>
+  <si>
+    <t>s1_33</t>
+  </si>
+  <si>
+    <t>s1_34</t>
+  </si>
+  <si>
+    <t>s1_35</t>
+  </si>
+  <si>
+    <t>s1_36</t>
+  </si>
+  <si>
+    <t>s1_37</t>
+  </si>
+  <si>
+    <t>s1_38</t>
+  </si>
+  <si>
+    <t>s1_39</t>
+  </si>
+  <si>
+    <t>s1_40</t>
+  </si>
+  <si>
+    <t>s1_41</t>
+  </si>
+  <si>
+    <t>s1_42</t>
+  </si>
+  <si>
+    <t>s1_43</t>
+  </si>
+  <si>
+    <t>s1_44</t>
+  </si>
+  <si>
+    <t>s1_45</t>
+  </si>
+  <si>
+    <t>s1_46</t>
+  </si>
+  <si>
+    <t>s1_47</t>
+  </si>
+  <si>
+    <t>s1_48</t>
+  </si>
+  <si>
+    <t>s1_49</t>
+  </si>
+  <si>
+    <t>s1_50</t>
+  </si>
+  <si>
+    <t>s1_51</t>
+  </si>
+  <si>
+    <t>s1_52</t>
+  </si>
+  <si>
+    <t>s1_53</t>
+  </si>
+  <si>
+    <t>s1_54</t>
+  </si>
+  <si>
+    <t>s1_55</t>
+  </si>
+  <si>
+    <t>s1_56</t>
+  </si>
+  <si>
+    <t>s1_57</t>
+  </si>
+  <si>
+    <t>s1_58</t>
+  </si>
+  <si>
+    <t>s1_59</t>
+  </si>
+  <si>
+    <t>s1_60</t>
+  </si>
+  <si>
+    <t>s1_61</t>
+  </si>
+  <si>
+    <t>s1_62</t>
+  </si>
+  <si>
+    <t>s1_63</t>
+  </si>
+  <si>
+    <t>s1_64</t>
+  </si>
+  <si>
+    <t>s1_65</t>
+  </si>
+  <si>
+    <t>s1_66</t>
+  </si>
+  <si>
+    <t>s1_67</t>
+  </si>
+  <si>
+    <t>s1_68</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,14 +391,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +568,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -466,12 +624,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -526,7 +690,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -581,7 +751,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -636,7 +812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -686,12 +868,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -741,12 +929,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -796,12 +990,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -856,7 +1056,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -911,7 +1117,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -966,7 +1178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1021,7 +1239,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1076,7 +1300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1131,7 +1361,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1186,7 +1422,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1241,7 +1483,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1296,7 +1544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1351,7 +1605,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1401,12 +1661,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1461,7 +1727,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1516,7 +1788,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1571,7 +1849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1626,7 +1910,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1681,7 +1971,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1731,12 +2027,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1776,50 +2078,2724 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219808</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381733</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0CE1C2-5B18-46AA-9439-503D00C72F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2483827" y="4784480"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F3D0B8-D005-4A77-88A4-51EF7A08FAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2452687" y="5167313"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>394188</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CD21EB-6A94-475B-9825-BA4D50C401FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2527788" y="5334000"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415437</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554649</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3184188F-83C6-4F62-9122-0FCE800BE3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2672862" y="5272454"/>
+          <a:ext cx="139212" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>252779</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>424229</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A486A5-04B5-4241-B30E-4F4111CB41C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2538779" y="5738813"/>
+          <a:ext cx="171450" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>395653</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548053</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B250DBF-F207-4CDF-8E50-350EFACDD42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2681653" y="6000750"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224203</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>363415</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902EBC6D-4238-4F35-A8E9-32F18AE0081D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2481628" y="5781675"/>
+          <a:ext cx="139212" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>382465</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534865</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BCE9D2-DEDA-48F5-AED6-878CDA66CAD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2639890" y="5991958"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98914</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238858</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3DF3E9-58C0-4C42-AE27-87FDC71B27D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2356339" y="6124575"/>
+          <a:ext cx="139944" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359752</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502627</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>156064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D72450D-E7D4-4450-81BD-5A752D94F1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2617177" y="6366364"/>
+          <a:ext cx="142875" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>344632</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A004D9F-BCD0-44FE-9671-868D2D247F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2424546" y="6234545"/>
+          <a:ext cx="171450" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419446</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571846</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>3811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B6547F-1ABD-423D-B9AB-2DA86F03B5A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2670810" y="6422968"/>
+          <a:ext cx="152400" cy="161752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272415</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2378B271-9946-4E66-A36A-34EB5E035F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2361854" y="6557357"/>
+          <a:ext cx="161925" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441959</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>41909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603884</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EDC8AF-954A-428A-9343-AEC7BC0F1AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2693323" y="6796000"/>
+          <a:ext cx="161925" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174220</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336145</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862827AD-176A-4A1E-A7C7-05A8571B1375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2425584" y="6892636"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>492874</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635749</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>32905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D50BA7-F1E9-46D8-922B-C00BCAF6C9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2744238" y="7135091"/>
+          <a:ext cx="142875" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138199</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>290599</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91ABD7C-8F80-4773-BD34-6B742CB226C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2389563" y="7288877"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454083</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625533</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD736DD-B589-479F-9C78-FD539B28F73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2705447" y="7429500"/>
+          <a:ext cx="171450" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E2E7F4-8012-4C6B-8382-4A30A1DC0E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2369474" y="7627620"/>
+          <a:ext cx="152400" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>497724</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>159328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650124</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39615924-B2B1-4CA5-A218-C56DB42BAB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2749088" y="7779328"/>
+          <a:ext cx="152400" cy="142701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137792</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>181600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280667</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D31C3B-551F-4AB8-9B06-F0FAB56793D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2390662" y="8381383"/>
+          <a:ext cx="142875" cy="161435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480224</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>62061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635914</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>41278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064FAA7A-E007-4793-92A9-D37F13D70843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2733094" y="8626278"/>
+          <a:ext cx="155690" cy="161435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132130</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>39425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289726</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>83</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9206C03-57B9-423A-AB7C-6D3FAEE79063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2385000" y="8785860"/>
+          <a:ext cx="157596" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310446</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>477566</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>164802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB0796E-70B8-48B3-8CA2-61C79CA6C272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2563316" y="8932191"/>
+          <a:ext cx="167120" cy="161263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>239186</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>13283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391413</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>165021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A3A872-01B8-4F8B-86B7-611422EB65E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2492056" y="9124153"/>
+          <a:ext cx="152227" cy="151738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5117239B-2577-4749-BBC5-D813624350DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2738437" y="9763125"/>
+          <a:ext cx="152400" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180147</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342072</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>60463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C6AD02-C33D-4C49-9D6E-5BCFD2D0F3EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466147" y="9947413"/>
+          <a:ext cx="161925" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>493851</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>636726</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DE04EC-0A49-4149-AF0A-F3C707C1C122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2779851" y="10191750"/>
+          <a:ext cx="142875" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125275</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>167723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>167723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F48E486-0B44-4D8C-ABEA-8A6C161D5313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2411275" y="10264223"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183065</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328970</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>155394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DF3805-6299-45C9-8655-E18F9FC462C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2443088" y="10014145"/>
+          <a:ext cx="145905" cy="142499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266062</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>20318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>389887</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>153292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85558D84-8E81-425E-8088-07C145BAC91D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2526085" y="10385250"/>
+          <a:ext cx="123825" cy="132974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233795</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348095</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>136813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0292F006-0570-43C9-A98B-84C591D0A6EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2493818" y="10196079"/>
+          <a:ext cx="114300" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>164167</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>138391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FCABB3-09F4-45CA-9FD3-89A876BE7D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2342030" y="10253381"/>
+          <a:ext cx="85725" cy="463363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>475231</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560956</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>135030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB9DE06-2AAA-440A-A338-2558DFC5ECC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2738819" y="10410264"/>
+          <a:ext cx="85725" cy="482413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114860</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200585</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>117662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD02998-DBA9-450E-914E-37D28EE0D8FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2378448" y="10600765"/>
+          <a:ext cx="85725" cy="453838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348909</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>453684</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>125608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1650A7E-37A6-4E34-93F8-5E51CF1616E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2612497" y="10759430"/>
+          <a:ext cx="104775" cy="482413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335412</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>77678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380491</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>106253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60575ED2-A3EB-419B-9F05-A6FD63ABB02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2262824" y="11014619"/>
+          <a:ext cx="381255" cy="387163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257992</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>645970</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9D25D1-89E3-4CC4-845B-029E50D06C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2521580" y="11154437"/>
+          <a:ext cx="387978" cy="396688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300776</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431325</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B70FFDC-3961-4860-81CA-D8C517973F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2228188" y="11317686"/>
+          <a:ext cx="466725" cy="517966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>475232</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>81498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115523</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>148173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CDD147-3DA8-4529-AB27-241E9DFD2978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2738820" y="11735616"/>
+          <a:ext cx="323850" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDE9A2C-9750-466F-9077-FAB40F5D620F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2711823" y="11844618"/>
+          <a:ext cx="152400" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309283</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>5043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69134EF9-BF9F-4BDF-B497-B5C8B1289705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2420471" y="12035118"/>
+          <a:ext cx="152400" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>163607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CB8BC5-B7D5-46C3-947E-4CA4F50E8FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2644588" y="12203207"/>
+          <a:ext cx="133350" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>386043</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>16249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DB62FD-4316-4B6B-8E8F-4BC017BFB6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2487706" y="12404912"/>
+          <a:ext cx="161925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" tableType="xml" totalsRowShown="0" connectionId="3">
-  <autoFilter ref="A1:E26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+  <autoFilter ref="A1:E32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="ID" name="id">
-      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/ID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="X" name="x">
-      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/X" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="Y" name="y">
-      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Y" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="Width" name="w">
-      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Width" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="Height" name="h">
-      <xmlColumnPr mapId="2" xpath="/data-set/SPRITE/Height" xmlDataType="integer"/>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="x"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="y"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="w"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="h"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E30" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E30" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:E30" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="ID" name="id">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="ID" name="id">
       <xmlColumnPr mapId="3" xpath="/data-set/SPRITE/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="X" name="x" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="X" name="x" dataDxfId="3">
       <xmlColumnPr mapId="3" xpath="/data-set/SPRITE/X" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Y" name="y" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="Y" name="y" dataDxfId="2">
       <xmlColumnPr mapId="3" xpath="/data-set/SPRITE/Y" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Width" name="w" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="Width" name="w" dataDxfId="1">
       <xmlColumnPr mapId="3" xpath="/data-set/SPRITE/Width" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Height" name="h" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="Height" name="h" dataDxfId="0">
       <xmlColumnPr mapId="3" xpath="/data-set/SPRITE/Height" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -2089,22 +5065,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="3" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +5100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2141,7 +5117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +5134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2175,7 +5151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2192,7 +5168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2209,7 +5185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2226,7 +5202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2243,7 +5219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +5236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2277,7 +5253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2311,7 +5287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2328,7 +5304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2345,7 +5321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2362,7 +5338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2379,7 +5355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2396,7 +5372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2413,7 +5389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2430,7 +5406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2447,7 +5423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2464,7 +5440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2481,7 +5457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2498,7 +5474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2515,7 +5491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2532,7 +5508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2546,6 +5522,754 @@
         <v>16</v>
       </c>
       <c r="E26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>96</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>96</v>
+      </c>
+      <c r="C33" s="3">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>96</v>
+      </c>
+      <c r="C34" s="4">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>96</v>
+      </c>
+      <c r="C35" s="3">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>96</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>112</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>112</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39">
+        <v>112</v>
+      </c>
+      <c r="C39">
+        <v>48</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <v>112</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41">
+        <v>128</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>128</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>128</v>
+      </c>
+      <c r="C43">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44">
+        <v>144</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45">
+        <v>144</v>
+      </c>
+      <c r="C45">
+        <v>32</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46">
+        <v>144</v>
+      </c>
+      <c r="C46">
+        <v>48</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48">
+        <v>160</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <v>160</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>176</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51">
+        <v>176</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>96</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>112</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>96</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>112</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56">
+        <v>96</v>
+      </c>
+      <c r="C56">
+        <v>96</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <v>96</v>
+      </c>
+      <c r="C57">
+        <v>112</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58">
+        <v>112</v>
+      </c>
+      <c r="C58">
+        <v>96</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>128</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>128</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61">
+        <v>40</v>
+      </c>
+      <c r="C61">
+        <v>128</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62">
+        <v>48</v>
+      </c>
+      <c r="C62">
+        <v>128</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>176</v>
+      </c>
+      <c r="D63">
+        <v>39</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>224</v>
+      </c>
+      <c r="D64">
+        <v>39</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>280</v>
+      </c>
+      <c r="D65">
+        <v>48</v>
+      </c>
+      <c r="E65">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>288</v>
+      </c>
+      <c r="D66">
+        <v>32</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67">
+        <v>48</v>
+      </c>
+      <c r="C67">
+        <v>288</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68">
+        <v>64</v>
+      </c>
+      <c r="C68">
+        <v>272</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69">
+        <v>64</v>
+      </c>
+      <c r="C69">
+        <v>288</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70">
+        <v>80</v>
+      </c>
+      <c r="C70">
+        <v>288</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
         <v>16</v>
       </c>
     </row>
@@ -2559,22 +6283,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2594,7 +6318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2611,7 +6335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2628,7 +6352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2645,7 +6369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2662,7 +6386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2679,7 +6403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2696,7 +6420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -2713,7 +6437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2730,7 +6454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2747,7 +6471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2764,7 +6488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2781,7 +6505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2798,7 +6522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2815,7 +6539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2832,7 +6556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -2849,7 +6573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2866,7 +6590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -2883,7 +6607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -2900,7 +6624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -2917,7 +6641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -2934,7 +6658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -2951,7 +6675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2968,7 +6692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2985,7 +6709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -3002,7 +6726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -3019,7 +6743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3036,7 +6760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -3053,7 +6777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3070,7 +6794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
